--- a/testPro.xlsx
+++ b/testPro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8797" windowHeight="6487"/>
+    <workbookView windowWidth="11460" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="652">
   <si>
     <r>
       <rPr>
@@ -102,6 +102,9 @@
       </rPr>
       <t>修訂版</t>
     </r>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
   <si>
     <t>action</t>
@@ -2047,9 +2050,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -2110,6 +2113,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -2125,9 +2136,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2140,53 +2172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2195,13 +2183,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2222,6 +2203,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2230,16 +2227,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2253,9 +2257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2270,7 +2273,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2282,7 +2327,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2294,19 +2387,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2318,139 +2453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2461,6 +2464,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2488,30 +2506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2530,8 +2524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2553,6 +2547,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2566,148 +2569,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3067,8 +3070,8 @@
   <sheetPr/>
   <dimension ref="A1:AF507"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B97"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.85"/>
@@ -3136,19 +3139,21 @@
     <row r="2" spans="1:32">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3181,14 +3186,14 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -3221,14 +3226,14 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -3261,14 +3266,14 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3301,14 +3306,14 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3341,14 +3346,14 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3381,14 +3386,14 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3421,14 +3426,14 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3461,14 +3466,14 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -3501,14 +3506,14 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -3541,14 +3546,14 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3581,14 +3586,14 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -3621,14 +3626,14 @@
       <c r="C14" s="4"/>
       <c r="D14" s="8"/>
       <c r="E14" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -3661,14 +3666,14 @@
       <c r="C15" s="4"/>
       <c r="D15" s="8"/>
       <c r="E15" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -3701,14 +3706,14 @@
       <c r="C16" s="4"/>
       <c r="D16" s="8"/>
       <c r="E16" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -3741,14 +3746,14 @@
       <c r="C17" s="4"/>
       <c r="D17" s="8"/>
       <c r="E17" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -3814,17 +3819,17 @@
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
       <c r="D19" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -3857,14 +3862,14 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3897,14 +3902,14 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3937,14 +3942,14 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -3977,14 +3982,14 @@
       <c r="C23" s="4"/>
       <c r="D23" s="8"/>
       <c r="E23" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -4017,14 +4022,14 @@
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
       <c r="E24" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -4057,14 +4062,14 @@
       <c r="C25" s="4"/>
       <c r="D25" s="8"/>
       <c r="E25" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -4097,14 +4102,14 @@
       <c r="C26" s="4"/>
       <c r="D26" s="8"/>
       <c r="E26" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -4170,17 +4175,17 @@
       <c r="B28" s="4"/>
       <c r="C28" s="8"/>
       <c r="D28" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -4213,14 +4218,14 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -4253,14 +4258,14 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -4293,14 +4298,14 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -4333,14 +4338,14 @@
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
       <c r="E32" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -4406,17 +4411,17 @@
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
       <c r="D34" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -4482,17 +4487,17 @@
       <c r="B36" s="4"/>
       <c r="C36" s="8"/>
       <c r="D36" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -4525,14 +4530,14 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -4565,14 +4570,14 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -4605,14 +4610,14 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -4645,14 +4650,14 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -4685,14 +4690,14 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -4725,14 +4730,14 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -4765,14 +4770,14 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -4838,17 +4843,17 @@
       <c r="B45" s="4"/>
       <c r="C45" s="8"/>
       <c r="D45" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -4982,17 +4987,17 @@
       <c r="B49" s="4"/>
       <c r="C49" s="8"/>
       <c r="D49" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -5025,14 +5030,14 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -5065,14 +5070,14 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -5105,14 +5110,14 @@
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -5145,14 +5150,14 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -5185,14 +5190,14 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -5225,14 +5230,14 @@
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -5265,14 +5270,14 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -5337,20 +5342,20 @@
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -5383,14 +5388,14 @@
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -5423,14 +5428,14 @@
       <c r="C60" s="8"/>
       <c r="D60" s="4"/>
       <c r="E60" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -5463,14 +5468,14 @@
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -5503,14 +5508,14 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -5543,14 +5548,14 @@
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -5583,12 +5588,12 @@
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -5621,12 +5626,12 @@
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -5659,12 +5664,12 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -5730,7 +5735,7 @@
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -5800,15 +5805,15 @@
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -5841,12 +5846,12 @@
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -5879,12 +5884,12 @@
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -5917,12 +5922,12 @@
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -5955,12 +5960,12 @@
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -5993,12 +5998,12 @@
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -6031,12 +6036,12 @@
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -6069,12 +6074,12 @@
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -6107,14 +6112,14 @@
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -6180,15 +6185,15 @@
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -6221,12 +6226,12 @@
       <c r="C81" s="4"/>
       <c r="D81" s="8"/>
       <c r="E81" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -6259,12 +6264,12 @@
       <c r="C82" s="4"/>
       <c r="D82" s="8"/>
       <c r="E82" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -6297,12 +6302,12 @@
       <c r="C83" s="4"/>
       <c r="D83" s="8"/>
       <c r="E83" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -6335,14 +6340,14 @@
       <c r="C84" s="4"/>
       <c r="D84" s="8"/>
       <c r="E84" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -6375,14 +6380,14 @@
       <c r="C85" s="4"/>
       <c r="D85" s="8"/>
       <c r="E85" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -6415,14 +6420,14 @@
       <c r="C86" s="4"/>
       <c r="D86" s="8"/>
       <c r="E86" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -6556,10 +6561,10 @@
       <c r="B90" s="4"/>
       <c r="C90" s="8"/>
       <c r="D90" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="6">
@@ -6630,17 +6635,17 @@
       <c r="B92" s="4"/>
       <c r="C92" s="8"/>
       <c r="D92" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -6673,14 +6678,14 @@
       <c r="C93" s="4"/>
       <c r="D93" s="8"/>
       <c r="E93" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -6746,15 +6751,15 @@
       <c r="B95" s="4"/>
       <c r="C95" s="8"/>
       <c r="D95" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -6787,14 +6792,14 @@
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -6859,20 +6864,20 @@
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -6905,14 +6910,14 @@
       <c r="C99" s="8"/>
       <c r="D99" s="4"/>
       <c r="E99" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
@@ -6945,14 +6950,14 @@
       <c r="C100" s="8"/>
       <c r="D100" s="4"/>
       <c r="E100" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -7222,15 +7227,15 @@
       <c r="B108" s="4"/>
       <c r="C108" s="8"/>
       <c r="D108" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
@@ -7263,14 +7268,14 @@
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
@@ -7303,14 +7308,14 @@
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
@@ -7343,12 +7348,12 @@
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
@@ -7381,12 +7386,12 @@
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
@@ -7419,14 +7424,14 @@
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
@@ -7459,14 +7464,14 @@
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
@@ -7499,14 +7504,14 @@
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -7572,17 +7577,17 @@
       <c r="B117" s="4"/>
       <c r="C117" s="8"/>
       <c r="D117" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -7615,12 +7620,12 @@
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -7653,14 +7658,14 @@
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -7693,12 +7698,12 @@
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -7731,12 +7736,12 @@
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -7769,12 +7774,12 @@
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -7840,17 +7845,17 @@
       <c r="B124" s="4"/>
       <c r="C124" s="8"/>
       <c r="D124" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -7883,14 +7888,14 @@
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -7923,14 +7928,14 @@
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -7996,17 +8001,17 @@
       <c r="B128" s="4"/>
       <c r="C128" s="8"/>
       <c r="D128" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
@@ -8072,17 +8077,17 @@
       <c r="B130" s="4"/>
       <c r="C130" s="8"/>
       <c r="D130" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
@@ -8115,14 +8120,14 @@
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
@@ -8155,14 +8160,14 @@
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
@@ -8228,17 +8233,17 @@
       <c r="B134" s="4"/>
       <c r="C134" s="8"/>
       <c r="D134" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -8271,12 +8276,12 @@
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -8342,17 +8347,17 @@
       <c r="B137" s="4"/>
       <c r="C137" s="8"/>
       <c r="D137" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
@@ -8418,17 +8423,17 @@
       <c r="B139" s="4"/>
       <c r="C139" s="8"/>
       <c r="D139" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
@@ -8461,14 +8466,14 @@
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -8501,14 +8506,14 @@
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -8574,17 +8579,17 @@
       <c r="B143" s="4"/>
       <c r="C143" s="8"/>
       <c r="D143" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
@@ -8650,17 +8655,17 @@
       <c r="B145" s="4"/>
       <c r="C145" s="8"/>
       <c r="D145" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
@@ -8726,17 +8731,17 @@
       <c r="B147" s="4"/>
       <c r="C147" s="8"/>
       <c r="D147" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
@@ -8769,14 +8774,14 @@
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
@@ -8809,14 +8814,14 @@
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -8882,15 +8887,15 @@
       <c r="B151" s="4"/>
       <c r="C151" s="8"/>
       <c r="D151" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -8956,15 +8961,15 @@
       <c r="B153" s="4"/>
       <c r="C153" s="8"/>
       <c r="D153" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -8997,14 +9002,14 @@
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -9037,14 +9042,14 @@
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -9077,14 +9082,14 @@
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
@@ -9117,14 +9122,14 @@
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
@@ -9157,14 +9162,14 @@
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
@@ -9230,17 +9235,17 @@
       <c r="B160" s="4"/>
       <c r="C160" s="8"/>
       <c r="D160" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
@@ -9273,14 +9278,14 @@
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
@@ -9313,14 +9318,14 @@
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -9353,14 +9358,14 @@
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
@@ -9393,14 +9398,14 @@
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
@@ -9466,17 +9471,17 @@
       <c r="B166" s="4"/>
       <c r="C166" s="8"/>
       <c r="D166" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
@@ -9509,14 +9514,14 @@
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
@@ -9582,17 +9587,17 @@
       <c r="B169" s="4"/>
       <c r="C169" s="8"/>
       <c r="D169" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F169" s="4"/>
       <c r="G169" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
@@ -9625,14 +9630,14 @@
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
@@ -9665,14 +9670,14 @@
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
@@ -9705,14 +9710,14 @@
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F172" s="4"/>
       <c r="G172" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
@@ -9778,17 +9783,17 @@
       <c r="B174" s="4"/>
       <c r="C174" s="8"/>
       <c r="D174" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F174" s="4"/>
       <c r="G174" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
@@ -9853,20 +9858,20 @@
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F176" s="4"/>
       <c r="G176" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
@@ -9899,14 +9904,14 @@
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F177" s="4"/>
       <c r="G177" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
@@ -9972,17 +9977,17 @@
       <c r="B179" s="4"/>
       <c r="C179" s="8"/>
       <c r="D179" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F179" s="4"/>
       <c r="G179" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
@@ -10046,23 +10051,23 @@
     <row r="181" spans="1:32">
       <c r="A181" s="4"/>
       <c r="B181" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F181" s="4"/>
       <c r="G181" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
@@ -10095,14 +10100,14 @@
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F182" s="4"/>
       <c r="G182" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
@@ -10135,14 +10140,14 @@
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F183" s="4"/>
       <c r="G183" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
@@ -10175,14 +10180,14 @@
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F184" s="4"/>
       <c r="G184" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
@@ -10215,14 +10220,14 @@
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F185" s="4"/>
       <c r="G185" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
@@ -10288,17 +10293,17 @@
       <c r="B187" s="6"/>
       <c r="C187" s="4"/>
       <c r="D187" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F187" s="4"/>
       <c r="G187" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
@@ -10331,14 +10336,14 @@
       <c r="C188" s="4"/>
       <c r="D188" s="8"/>
       <c r="E188" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
@@ -10371,14 +10376,14 @@
       <c r="C189" s="4"/>
       <c r="D189" s="8"/>
       <c r="E189" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
@@ -10411,14 +10416,14 @@
       <c r="C190" s="4"/>
       <c r="D190" s="8"/>
       <c r="E190" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F190" s="4"/>
       <c r="G190" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H190" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
@@ -10484,17 +10489,17 @@
       <c r="B192" s="6"/>
       <c r="C192" s="8"/>
       <c r="D192" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
@@ -10527,14 +10532,14 @@
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
@@ -10567,14 +10572,14 @@
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
@@ -10912,17 +10917,17 @@
       <c r="B204" s="4"/>
       <c r="C204" s="8"/>
       <c r="D204" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F204" s="4"/>
       <c r="G204" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
@@ -10955,14 +10960,14 @@
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
       <c r="E205" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H205" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
@@ -10995,14 +11000,14 @@
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
       <c r="E206" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F206" s="4"/>
       <c r="G206" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
@@ -11035,14 +11040,14 @@
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
       <c r="E207" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
@@ -11075,14 +11080,14 @@
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
       <c r="E208" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
@@ -11115,14 +11120,14 @@
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
       <c r="E209" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
@@ -11155,14 +11160,14 @@
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
       <c r="E210" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F210" s="4"/>
       <c r="G210" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
@@ -11195,14 +11200,14 @@
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
       <c r="E211" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
@@ -11235,14 +11240,14 @@
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
       <c r="E212" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F212" s="4"/>
       <c r="G212" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
@@ -11308,14 +11313,14 @@
       <c r="B214" s="4"/>
       <c r="C214" s="8"/>
       <c r="D214" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
@@ -11382,17 +11387,17 @@
       <c r="B216" s="4"/>
       <c r="C216" s="8"/>
       <c r="D216" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F216" s="4"/>
       <c r="G216" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H216" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
@@ -11425,14 +11430,14 @@
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
       <c r="E217" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F217" s="4"/>
       <c r="G217" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
@@ -11465,14 +11470,14 @@
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
       <c r="E218" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F218" s="4"/>
       <c r="G218" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
@@ -11538,17 +11543,17 @@
       <c r="B220" s="4"/>
       <c r="C220" s="8"/>
       <c r="D220" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F220" s="4"/>
       <c r="G220" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H220" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
@@ -11581,14 +11586,14 @@
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
       <c r="E221" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F221" s="4"/>
       <c r="G221" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H221" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
@@ -11654,15 +11659,15 @@
       <c r="B223" s="4"/>
       <c r="C223" s="8"/>
       <c r="D223" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F223" s="4"/>
       <c r="G223" s="6"/>
       <c r="H223" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
@@ -11695,14 +11700,14 @@
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
       <c r="E224" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F224" s="4"/>
       <c r="G224" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
@@ -11735,12 +11740,12 @@
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
       <c r="E225" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F225" s="4"/>
       <c r="G225" s="6"/>
       <c r="H225" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
@@ -11773,14 +11778,14 @@
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
       <c r="E226" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F226" s="4"/>
       <c r="G226" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
@@ -11813,14 +11818,14 @@
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
       <c r="E227" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F227" s="4"/>
       <c r="G227" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
@@ -11886,17 +11891,17 @@
       <c r="B229" s="4"/>
       <c r="C229" s="8"/>
       <c r="D229" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F229" s="4"/>
       <c r="G229" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
@@ -11929,14 +11934,14 @@
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
       <c r="E230" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F230" s="4"/>
       <c r="G230" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
@@ -11969,12 +11974,12 @@
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
       <c r="E231" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F231" s="4"/>
       <c r="G231" s="6"/>
       <c r="H231" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
@@ -12007,12 +12012,12 @@
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
       <c r="E232" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F232" s="4"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
@@ -12045,14 +12050,14 @@
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
       <c r="E233" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F233" s="4"/>
       <c r="G233" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
@@ -12085,14 +12090,14 @@
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F234" s="4"/>
       <c r="G234" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
@@ -12125,14 +12130,14 @@
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
       <c r="E235" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F235" s="4"/>
       <c r="G235" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H235" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
@@ -12198,17 +12203,17 @@
       <c r="B237" s="4"/>
       <c r="C237" s="8"/>
       <c r="D237" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F237" s="4"/>
       <c r="G237" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
@@ -12241,14 +12246,14 @@
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
       <c r="E238" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F238" s="4"/>
       <c r="G238" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
@@ -12281,14 +12286,14 @@
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
       <c r="E239" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F239" s="4"/>
       <c r="G239" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
@@ -12321,14 +12326,14 @@
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
       <c r="E240" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F240" s="4"/>
       <c r="G240" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
@@ -12361,14 +12366,14 @@
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
       <c r="E241" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
@@ -12401,14 +12406,14 @@
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
       <c r="E242" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F242" s="4"/>
       <c r="G242" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
@@ -12441,14 +12446,14 @@
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
       <c r="E243" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F243" s="4"/>
       <c r="G243" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H243" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
@@ -12481,14 +12486,14 @@
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
       <c r="E244" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F244" s="4"/>
       <c r="G244" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
@@ -12554,17 +12559,17 @@
       <c r="B246" s="4"/>
       <c r="C246" s="8"/>
       <c r="D246" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F246" s="4"/>
       <c r="G246" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
@@ -12597,14 +12602,14 @@
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
       <c r="E247" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F247" s="4"/>
       <c r="G247" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
@@ -12637,14 +12642,14 @@
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
       <c r="E248" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F248" s="4"/>
       <c r="G248" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
@@ -12677,14 +12682,14 @@
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
       <c r="E249" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F249" s="4"/>
       <c r="G249" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
@@ -12717,14 +12722,14 @@
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
       <c r="E250" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F250" s="4"/>
       <c r="G250" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
@@ -12757,14 +12762,14 @@
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
       <c r="E251" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F251" s="4"/>
       <c r="G251" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
@@ -12830,17 +12835,17 @@
       <c r="B253" s="4"/>
       <c r="C253" s="8"/>
       <c r="D253" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F253" s="4"/>
       <c r="G253" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
@@ -12873,14 +12878,14 @@
       <c r="C254" s="8"/>
       <c r="D254" s="8"/>
       <c r="E254" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F254" s="4"/>
       <c r="G254" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H254" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
@@ -12913,14 +12918,14 @@
       <c r="C255" s="8"/>
       <c r="D255" s="8"/>
       <c r="E255" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F255" s="4"/>
       <c r="G255" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H255" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
@@ -12953,14 +12958,14 @@
       <c r="C256" s="8"/>
       <c r="D256" s="8"/>
       <c r="E256" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F256" s="4"/>
       <c r="G256" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
@@ -12993,14 +12998,14 @@
       <c r="C257" s="8"/>
       <c r="D257" s="8"/>
       <c r="E257" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F257" s="4"/>
       <c r="G257" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H257" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
@@ -13033,14 +13038,14 @@
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
       <c r="E258" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F258" s="4"/>
       <c r="G258" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H258" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
@@ -13073,14 +13078,14 @@
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F259" s="4"/>
       <c r="G259" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H259" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
@@ -13113,14 +13118,14 @@
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
       <c r="E260" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F260" s="4"/>
       <c r="G260" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H260" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
@@ -13186,17 +13191,17 @@
       <c r="B262" s="4"/>
       <c r="C262" s="8"/>
       <c r="D262" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F262" s="4"/>
       <c r="G262" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H262" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
@@ -13229,14 +13234,14 @@
       <c r="C263" s="8"/>
       <c r="D263" s="8"/>
       <c r="E263" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F263" s="4"/>
       <c r="G263" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
@@ -13269,14 +13274,14 @@
       <c r="C264" s="8"/>
       <c r="D264" s="8"/>
       <c r="E264" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F264" s="4"/>
       <c r="G264" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
@@ -13309,12 +13314,12 @@
       <c r="C265" s="8"/>
       <c r="D265" s="8"/>
       <c r="E265" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F265" s="4"/>
       <c r="G265" s="6"/>
       <c r="H265" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
@@ -13347,12 +13352,12 @@
       <c r="C266" s="8"/>
       <c r="D266" s="8"/>
       <c r="E266" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F266" s="4"/>
       <c r="G266" s="6"/>
       <c r="H266" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
@@ -13385,12 +13390,12 @@
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
       <c r="E267" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F267" s="4"/>
       <c r="G267" s="6"/>
       <c r="H267" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
@@ -13423,12 +13428,12 @@
       <c r="C268" s="8"/>
       <c r="D268" s="8"/>
       <c r="E268" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F268" s="4"/>
       <c r="G268" s="6"/>
       <c r="H268" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
@@ -13461,14 +13466,14 @@
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
       <c r="E269" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F269" s="4"/>
       <c r="G269" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H269" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
@@ -13533,18 +13538,18 @@
       <c r="A271" s="4"/>
       <c r="B271" s="8"/>
       <c r="C271" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F271" s="4"/>
       <c r="G271" s="6"/>
       <c r="H271" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
@@ -13577,12 +13582,12 @@
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
       <c r="E272" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F272" s="4"/>
       <c r="G272" s="6"/>
       <c r="H272" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
@@ -13615,14 +13620,14 @@
       <c r="C273" s="8"/>
       <c r="D273" s="8"/>
       <c r="E273" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F273" s="4"/>
       <c r="G273" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H273" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
@@ -13655,12 +13660,12 @@
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
       <c r="E274" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F274" s="4"/>
       <c r="G274" s="6"/>
       <c r="H274" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
@@ -13726,7 +13731,7 @@
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
       <c r="D276" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E276" s="6"/>
       <c r="F276" s="4"/>
@@ -13899,12 +13904,12 @@
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
       <c r="E281" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F281" s="4"/>
       <c r="G281" s="6"/>
       <c r="H281" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
@@ -13937,14 +13942,14 @@
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
       <c r="E282" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F282" s="4"/>
       <c r="G282" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H282" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
@@ -13977,14 +13982,14 @@
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
       <c r="E283" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F283" s="4"/>
       <c r="G283" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H283" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
@@ -14017,14 +14022,14 @@
       <c r="C284" s="8"/>
       <c r="D284" s="8"/>
       <c r="E284" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F284" s="4"/>
       <c r="G284" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H284" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
@@ -14057,12 +14062,12 @@
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
       <c r="E285" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F285" s="4"/>
       <c r="G285" s="6"/>
       <c r="H285" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
@@ -14128,17 +14133,17 @@
       <c r="B287" s="4"/>
       <c r="C287" s="8"/>
       <c r="D287" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F287" s="4"/>
       <c r="G287" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H287" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
@@ -14171,14 +14176,14 @@
       <c r="C288" s="8"/>
       <c r="D288" s="8"/>
       <c r="E288" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F288" s="4"/>
       <c r="G288" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H288" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
@@ -14211,14 +14216,14 @@
       <c r="C289" s="8"/>
       <c r="D289" s="8"/>
       <c r="E289" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F289" s="4"/>
       <c r="G289" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H289" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
@@ -14251,14 +14256,14 @@
       <c r="C290" s="8"/>
       <c r="D290" s="8"/>
       <c r="E290" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F290" s="4"/>
       <c r="G290" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H290" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
@@ -14323,16 +14328,16 @@
       <c r="A292" s="4"/>
       <c r="B292" s="8"/>
       <c r="C292" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E292" s="6"/>
       <c r="F292" s="4"/>
       <c r="G292" s="6"/>
       <c r="H292" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
@@ -14398,15 +14403,15 @@
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
       <c r="D294" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F294" s="4"/>
       <c r="G294" s="6"/>
       <c r="H294" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
@@ -14439,14 +14444,14 @@
       <c r="C295" s="8"/>
       <c r="D295" s="8"/>
       <c r="E295" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F295" s="4"/>
       <c r="G295" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H295" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
@@ -14479,12 +14484,12 @@
       <c r="C296" s="8"/>
       <c r="D296" s="8"/>
       <c r="E296" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F296" s="4"/>
       <c r="G296" s="6"/>
       <c r="H296" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
@@ -14550,15 +14555,15 @@
       <c r="B298" s="4"/>
       <c r="C298" s="8"/>
       <c r="D298" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F298" s="4"/>
       <c r="G298" s="6"/>
       <c r="H298" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
@@ -14591,12 +14596,12 @@
       <c r="C299" s="8"/>
       <c r="D299" s="8"/>
       <c r="E299" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F299" s="4"/>
       <c r="G299" s="6"/>
       <c r="H299" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
@@ -14629,12 +14634,12 @@
       <c r="C300" s="8"/>
       <c r="D300" s="8"/>
       <c r="E300" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F300" s="4"/>
       <c r="G300" s="6"/>
       <c r="H300" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
@@ -14667,12 +14672,12 @@
       <c r="C301" s="8"/>
       <c r="D301" s="8"/>
       <c r="E301" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F301" s="4"/>
       <c r="G301" s="6"/>
       <c r="H301" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
@@ -14705,12 +14710,12 @@
       <c r="C302" s="8"/>
       <c r="D302" s="8"/>
       <c r="E302" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F302" s="4"/>
       <c r="G302" s="6"/>
       <c r="H302" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
@@ -14743,12 +14748,12 @@
       <c r="C303" s="8"/>
       <c r="D303" s="8"/>
       <c r="E303" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F303" s="4"/>
       <c r="G303" s="6"/>
       <c r="H303" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
@@ -14781,12 +14786,12 @@
       <c r="C304" s="8"/>
       <c r="D304" s="8"/>
       <c r="E304" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F304" s="4"/>
       <c r="G304" s="6"/>
       <c r="H304" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
@@ -14819,12 +14824,12 @@
       <c r="C305" s="8"/>
       <c r="D305" s="8"/>
       <c r="E305" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F305" s="4"/>
       <c r="G305" s="6"/>
       <c r="H305" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
@@ -14890,15 +14895,15 @@
       <c r="B307" s="4"/>
       <c r="C307" s="8"/>
       <c r="D307" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F307" s="4"/>
       <c r="G307" s="6"/>
       <c r="H307" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
@@ -14931,12 +14936,12 @@
       <c r="C308" s="8"/>
       <c r="D308" s="8"/>
       <c r="E308" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F308" s="4"/>
       <c r="G308" s="6"/>
       <c r="H308" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
@@ -14969,12 +14974,12 @@
       <c r="C309" s="8"/>
       <c r="D309" s="8"/>
       <c r="E309" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F309" s="4"/>
       <c r="G309" s="6"/>
       <c r="H309" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
@@ -15007,12 +15012,12 @@
       <c r="C310" s="8"/>
       <c r="D310" s="8"/>
       <c r="E310" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F310" s="4"/>
       <c r="G310" s="6"/>
       <c r="H310" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
@@ -15045,12 +15050,12 @@
       <c r="C311" s="8"/>
       <c r="D311" s="8"/>
       <c r="E311" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F311" s="4"/>
       <c r="G311" s="6"/>
       <c r="H311" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
@@ -15083,12 +15088,12 @@
       <c r="C312" s="8"/>
       <c r="D312" s="8"/>
       <c r="E312" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F312" s="4"/>
       <c r="G312" s="6"/>
       <c r="H312" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
@@ -15121,12 +15126,12 @@
       <c r="C313" s="8"/>
       <c r="D313" s="8"/>
       <c r="E313" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F313" s="4"/>
       <c r="G313" s="10"/>
       <c r="H313" s="11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
@@ -15192,17 +15197,17 @@
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F315" s="4"/>
       <c r="G315" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H315" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
@@ -15235,12 +15240,12 @@
       <c r="C316" s="8"/>
       <c r="D316" s="8"/>
       <c r="E316" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F316" s="4"/>
       <c r="G316" s="6"/>
       <c r="H316" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
@@ -15305,18 +15310,18 @@
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
       <c r="G318" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H318" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
@@ -15382,17 +15387,17 @@
       <c r="B320" s="4"/>
       <c r="C320" s="8"/>
       <c r="D320" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F320" s="4"/>
       <c r="G320" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H320" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
@@ -15425,12 +15430,12 @@
       <c r="C321" s="8"/>
       <c r="D321" s="8"/>
       <c r="E321" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F321" s="4"/>
       <c r="G321" s="6"/>
       <c r="H321" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
@@ -15463,12 +15468,12 @@
       <c r="C322" s="8"/>
       <c r="D322" s="8"/>
       <c r="E322" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F322" s="4"/>
       <c r="G322" s="6"/>
       <c r="H322" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
@@ -15501,12 +15506,12 @@
       <c r="C323" s="8"/>
       <c r="D323" s="8"/>
       <c r="E323" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F323" s="4"/>
       <c r="G323" s="6"/>
       <c r="H323" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
@@ -15539,12 +15544,12 @@
       <c r="C324" s="8"/>
       <c r="D324" s="8"/>
       <c r="E324" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F324" s="4"/>
       <c r="G324" s="6"/>
       <c r="H324" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
@@ -15577,12 +15582,12 @@
       <c r="C325" s="8"/>
       <c r="D325" s="8"/>
       <c r="E325" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F325" s="4"/>
       <c r="G325" s="6"/>
       <c r="H325" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
@@ -15648,15 +15653,15 @@
       <c r="B327" s="4"/>
       <c r="C327" s="8"/>
       <c r="D327" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
       <c r="G327" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H327" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
@@ -15722,13 +15727,13 @@
       <c r="B329" s="4"/>
       <c r="C329" s="8"/>
       <c r="D329" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
       <c r="G329" s="6"/>
       <c r="H329" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
@@ -15794,15 +15799,15 @@
       <c r="B331" s="4"/>
       <c r="C331" s="8"/>
       <c r="D331" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
       <c r="G331" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H331" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
@@ -15868,15 +15873,15 @@
       <c r="B333" s="4"/>
       <c r="C333" s="8"/>
       <c r="D333" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F333" s="4"/>
       <c r="G333" s="6"/>
       <c r="H333" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
@@ -15909,12 +15914,12 @@
       <c r="C334" s="4"/>
       <c r="D334" s="8"/>
       <c r="E334" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F334" s="4"/>
       <c r="G334" s="6"/>
       <c r="H334" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
@@ -15947,12 +15952,12 @@
       <c r="C335" s="4"/>
       <c r="D335" s="8"/>
       <c r="E335" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F335" s="4"/>
       <c r="G335" s="6"/>
       <c r="H335" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
@@ -15985,12 +15990,12 @@
       <c r="C336" s="4"/>
       <c r="D336" s="8"/>
       <c r="E336" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F336" s="4"/>
       <c r="G336" s="6"/>
       <c r="H336" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
@@ -16023,12 +16028,12 @@
       <c r="C337" s="4"/>
       <c r="D337" s="8"/>
       <c r="E337" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F337" s="4"/>
       <c r="G337" s="6"/>
       <c r="H337" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
@@ -16061,12 +16066,12 @@
       <c r="C338" s="4"/>
       <c r="D338" s="8"/>
       <c r="E338" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F338" s="4"/>
       <c r="G338" s="6"/>
       <c r="H338" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
@@ -16099,12 +16104,12 @@
       <c r="C339" s="4"/>
       <c r="D339" s="8"/>
       <c r="E339" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F339" s="4"/>
       <c r="G339" s="6"/>
       <c r="H339" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
@@ -16137,12 +16142,12 @@
       <c r="C340" s="4"/>
       <c r="D340" s="8"/>
       <c r="E340" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F340" s="4"/>
       <c r="G340" s="6"/>
       <c r="H340" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
@@ -16175,12 +16180,12 @@
       <c r="C341" s="8"/>
       <c r="D341" s="8"/>
       <c r="E341" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F341" s="4"/>
       <c r="G341" s="6"/>
       <c r="H341" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
@@ -16245,7 +16250,7 @@
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
@@ -16418,13 +16423,13 @@
       <c r="B348" s="4"/>
       <c r="C348" s="8"/>
       <c r="D348" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E348" s="6"/>
       <c r="F348" s="4"/>
       <c r="G348" s="6"/>
       <c r="H348" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
@@ -16490,13 +16495,13 @@
       <c r="B350" s="4"/>
       <c r="C350" s="8"/>
       <c r="D350" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E350" s="6"/>
       <c r="F350" s="4"/>
       <c r="G350" s="6"/>
       <c r="H350" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
@@ -16562,17 +16567,17 @@
       <c r="B352" s="4"/>
       <c r="C352" s="8"/>
       <c r="D352" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F352" s="4"/>
       <c r="G352" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H352" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
@@ -16605,14 +16610,14 @@
       <c r="C353" s="8"/>
       <c r="D353" s="8"/>
       <c r="E353" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F353" s="4"/>
       <c r="G353" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H353" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
@@ -16645,12 +16650,12 @@
       <c r="C354" s="8"/>
       <c r="D354" s="8"/>
       <c r="E354" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F354" s="4"/>
       <c r="G354" s="6"/>
       <c r="H354" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
@@ -16683,12 +16688,12 @@
       <c r="C355" s="8"/>
       <c r="D355" s="8"/>
       <c r="E355" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F355" s="4"/>
       <c r="G355" s="6"/>
       <c r="H355" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
@@ -16721,14 +16726,14 @@
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
       <c r="E356" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F356" s="4"/>
       <c r="G356" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H356" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
@@ -16794,17 +16799,17 @@
       <c r="B358" s="4"/>
       <c r="C358" s="8"/>
       <c r="D358" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F358" s="4"/>
       <c r="G358" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H358" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
@@ -16837,14 +16842,14 @@
       <c r="C359" s="8"/>
       <c r="D359" s="8"/>
       <c r="E359" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F359" s="4"/>
       <c r="G359" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H359" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
@@ -16877,14 +16882,14 @@
       <c r="C360" s="8"/>
       <c r="D360" s="8"/>
       <c r="E360" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F360" s="4"/>
       <c r="G360" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H360" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
@@ -16917,14 +16922,14 @@
       <c r="C361" s="8"/>
       <c r="D361" s="8"/>
       <c r="E361" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F361" s="4"/>
       <c r="G361" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="H361" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="H361" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
@@ -16990,17 +16995,17 @@
       <c r="B363" s="4"/>
       <c r="C363" s="8"/>
       <c r="D363" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F363" s="4"/>
       <c r="G363" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H363" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
@@ -17033,14 +17038,14 @@
       <c r="C364" s="8"/>
       <c r="D364" s="4"/>
       <c r="E364" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F364" s="4"/>
       <c r="G364" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H364" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
@@ -17106,15 +17111,15 @@
       <c r="B366" s="4"/>
       <c r="C366" s="8"/>
       <c r="D366" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F366" s="4"/>
       <c r="G366" s="6"/>
       <c r="H366" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
@@ -17147,14 +17152,14 @@
       <c r="C367" s="8"/>
       <c r="D367" s="8"/>
       <c r="E367" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F367" s="4"/>
       <c r="G367" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H367" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
@@ -17187,14 +17192,14 @@
       <c r="C368" s="8"/>
       <c r="D368" s="8"/>
       <c r="E368" s="6" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F368" s="4"/>
       <c r="G368" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H368" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
@@ -17227,14 +17232,14 @@
       <c r="C369" s="8"/>
       <c r="D369" s="8"/>
       <c r="E369" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F369" s="4"/>
       <c r="G369" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H369" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
@@ -17267,14 +17272,14 @@
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F370" s="4"/>
       <c r="G370" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H370" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
@@ -17307,14 +17312,14 @@
       <c r="C371" s="8"/>
       <c r="D371" s="8"/>
       <c r="E371" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F371" s="4"/>
       <c r="G371" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H371" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
@@ -17380,17 +17385,17 @@
       <c r="B373" s="4"/>
       <c r="C373" s="8"/>
       <c r="D373" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E373" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F373" s="4"/>
       <c r="G373" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H373" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
@@ -17423,14 +17428,14 @@
       <c r="C374" s="8"/>
       <c r="D374" s="8"/>
       <c r="E374" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F374" s="4"/>
       <c r="G374" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H374" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
@@ -17463,14 +17468,14 @@
       <c r="C375" s="8"/>
       <c r="D375" s="8"/>
       <c r="E375" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F375" s="4"/>
       <c r="G375" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H375" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
@@ -17536,15 +17541,15 @@
       <c r="B377" s="4"/>
       <c r="C377" s="8"/>
       <c r="D377" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F377" s="4"/>
       <c r="G377" s="6"/>
       <c r="H377" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
@@ -17577,12 +17582,12 @@
       <c r="C378" s="8"/>
       <c r="D378" s="8"/>
       <c r="E378" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F378" s="4"/>
       <c r="G378" s="6"/>
       <c r="H378" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
@@ -17615,12 +17620,12 @@
       <c r="C379" s="8"/>
       <c r="D379" s="8"/>
       <c r="E379" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F379" s="4"/>
       <c r="G379" s="6"/>
       <c r="H379" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
@@ -17653,12 +17658,12 @@
       <c r="C380" s="8"/>
       <c r="D380" s="8"/>
       <c r="E380" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F380" s="4"/>
       <c r="G380" s="6"/>
       <c r="H380" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
@@ -17691,12 +17696,12 @@
       <c r="C381" s="8"/>
       <c r="D381" s="8"/>
       <c r="E381" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F381" s="4"/>
       <c r="G381" s="6"/>
       <c r="H381" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
@@ -17729,12 +17734,12 @@
       <c r="C382" s="8"/>
       <c r="D382" s="8"/>
       <c r="E382" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F382" s="4"/>
       <c r="G382" s="6"/>
       <c r="H382" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
@@ -17767,12 +17772,12 @@
       <c r="C383" s="8"/>
       <c r="D383" s="8"/>
       <c r="E383" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F383" s="4"/>
       <c r="G383" s="6"/>
       <c r="H383" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
@@ -17838,17 +17843,17 @@
       <c r="B385" s="4"/>
       <c r="C385" s="8"/>
       <c r="D385" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F385" s="4"/>
       <c r="G385" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H385" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
@@ -17881,12 +17886,12 @@
       <c r="C386" s="8"/>
       <c r="D386" s="8"/>
       <c r="E386" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F386" s="4"/>
       <c r="G386" s="6"/>
       <c r="H386" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
@@ -17919,14 +17924,14 @@
       <c r="C387" s="8"/>
       <c r="D387" s="8"/>
       <c r="E387" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F387" s="4"/>
       <c r="G387" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H387" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
@@ -17959,14 +17964,14 @@
       <c r="C388" s="8"/>
       <c r="D388" s="8"/>
       <c r="E388" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F388" s="4"/>
       <c r="G388" s="6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H388" s="6" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
